--- a/outputs-HGR-r202-archive/f__Streptococcaceae.xlsx
+++ b/outputs-HGR-r202-archive/f__Streptococcaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,11 +679,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49384.fa</t>
+          <t>even_MAG-GUT83503.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4657.974863404017</v>
+        <v>4622.675904585194</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -699,11 +699,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6224.fa</t>
+          <t>even_MAG-GUT89273.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4486.473016585671</v>
+        <v>4869.069683910613</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -719,11 +719,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83503.fa</t>
+          <t>even_MAG-GUT89332.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4622.675904585194</v>
+        <v>4869.069683910613</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89273.fa</t>
+          <t>even_MAG-GUT89668.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -759,7 +759,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89332.fa</t>
+          <t>even_MAG-GUT89684.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -779,11 +779,11 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89668.fa</t>
+          <t>even_MAG-GUT89695.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4869.069683910613</v>
+        <v>4292.357644096977</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -799,11 +799,11 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89684.fa</t>
+          <t>even_MAG-GUT89697.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4869.069683910613</v>
+        <v>4292.357644096977</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -819,11 +819,11 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89695.fa</t>
+          <t>even_MAG-GUT89858.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4292.357644096977</v>
+        <v>4869.069683910613</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -839,11 +839,11 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89697.fa</t>
+          <t>even_MAG-GUT89860.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4292.357644096977</v>
+        <v>4869.069683910613</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89858.fa</t>
+          <t>even_MAG-GUT89941.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -879,7 +879,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89860.fa</t>
+          <t>even_MAG-GUT90444.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -899,7 +899,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89941.fa</t>
+          <t>even_MAG-GUT90475.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -919,11 +919,11 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90444.fa</t>
+          <t>even_MAG-GUT90508.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4869.069683910613</v>
+        <v>4292.357644096977</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90475.fa</t>
+          <t>even_MAG-GUT90581.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -959,11 +959,11 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90508.fa</t>
+          <t>even_MAG-GUT90913.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4292.357644096977</v>
+        <v>4869.069683910613</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -979,11 +979,11 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90581.fa</t>
+          <t>even_MAG-GUT91144.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4869.069683910613</v>
+        <v>4292.357644096977</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -999,11 +999,11 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90913.fa</t>
+          <t>even_MAG-GUT91355.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4869.069683910613</v>
+        <v>9662.041362311038</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1019,11 +1019,11 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91144.fa</t>
+          <t>even_MAG-GUT915.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4292.357644096977</v>
+        <v>5740.240021630538</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1031,46 +1031,6 @@
         </is>
       </c>
       <c r="D30" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91355.fa</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>9662.041362311038</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT915.fa</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>5740.240021630538</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
